--- a/src/main/python/science/samples/3_2.xlsx
+++ b/src/main/python/science/samples/3_2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
   <si>
     <t xml:space="preserve">  0.64</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t xml:space="preserve">  0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.55</t>
   </si>
 </sst>
 </file>
@@ -536,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,8 +1378,14 @@
       <c r="A60" t="s">
         <v>27</v>
       </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
       <c r="C60" t="s">
         <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
